--- a/data/case1/20/Plm1_1.xlsx
+++ b/data/case1/20/Plm1_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.31062614653640708</v>
+        <v>-0.38601601592701229</v>
       </c>
       <c r="B1" s="0">
-        <v>0.31002857572478604</v>
+        <v>0.38516358302067033</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.20588198655490508</v>
+        <v>-0.33905641723548641</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20434974667747952</v>
+        <v>0.33549021101385712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10140495962065188</v>
+        <v>-0.15623979884758299</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10113941946052663</v>
+        <v>0.15566588763204336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.089139419570319234</v>
+        <v>-0.1436658878360717</v>
       </c>
       <c r="B4" s="0">
-        <v>0.08893035122743953</v>
+        <v>0.14316049269256581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.082930351699547877</v>
+        <v>-0.13716049348805104</v>
       </c>
       <c r="B5" s="0">
-        <v>0.082539446697046159</v>
+        <v>0.13615861009196095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.054635454985971332</v>
+        <v>-0.0088045424901079805</v>
       </c>
       <c r="B6" s="0">
-        <v>0.05459837853088656</v>
+        <v>0.0088003563261347395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.034598379089500142</v>
+        <v>0.011199642719351033</v>
       </c>
       <c r="B7" s="0">
-        <v>0.034543752257983229</v>
+        <v>-0.011205806884207803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.014543752818655165</v>
+        <v>0.031205805931305619</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014520314556451197</v>
+        <v>-0.0312724387593315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0085203150391333082</v>
+        <v>0.037272437951453519</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0085024659423327265</v>
+        <v>-0.037369502916113184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0025024664256108053</v>
+        <v>-0.02038577455457613</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0025027875619016982</v>
+        <v>0.020386322638948684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0019972119632925001</v>
+        <v>-0.051462841594897668</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0020036083850811792</v>
+        <v>0.051387501675272063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0080036079019323303</v>
+        <v>-0.045387502478767772</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0080578634597499033</v>
+        <v>0.04514730672298306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.055439749941631256</v>
+        <v>-0.03914730753836615</v>
       </c>
       <c r="B13" s="0">
-        <v>0.055320872333479265</v>
+        <v>0.039082209872154827</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.043320872852045333</v>
+        <v>-0.027082210750532631</v>
       </c>
       <c r="B14" s="0">
-        <v>0.043223583717090008</v>
+        <v>0.027051168773298606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021050620608081161</v>
+        <v>-0.021051169594633379</v>
       </c>
       <c r="B15" s="0">
-        <v>0.02102641136990524</v>
+        <v>0.021026786117801066</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026411858231281</v>
+        <v>-0.015026786941523262</v>
       </c>
       <c r="B16" s="0">
-        <v>0.01500416838800156</v>
+        <v>0.015003931110623814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090041688780644336</v>
+        <v>-0.0090039319375243565</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994925920035</v>
+        <v>0.0089999991426070736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.094146589647731815</v>
+        <v>-0.03610716657248858</v>
       </c>
       <c r="B18" s="0">
-        <v>0.09405848829213781</v>
+        <v>0.036096219258194395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.085058488765426432</v>
+        <v>-0.027096220035255136</v>
       </c>
       <c r="B19" s="0">
-        <v>0.084375233316067</v>
+        <v>0.027013064763723449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.075375233803086417</v>
+        <v>-0.018013065547908269</v>
       </c>
       <c r="B20" s="0">
-        <v>0.075226811719408815</v>
+        <v>0.018004198611780708</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.066226812209326802</v>
+        <v>-0.0090041993970251255</v>
       </c>
       <c r="B21" s="0">
-        <v>0.066023848819872111</v>
+        <v>0.0089999992140503693</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093944787539486541</v>
+        <v>-0.093949889073487114</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093632699628320992</v>
+        <v>0.093636609109594815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084632700115066406</v>
+        <v>-0.084636609924173989</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126440480615017</v>
+        <v>0.084127053080335301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126441161545181</v>
+        <v>-0.04212705423589469</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999315591729</v>
+        <v>0.041999998837981778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.021903992189525212</v>
+        <v>-0.12135406841737861</v>
       </c>
       <c r="B25" s="0">
-        <v>0.021898149082719698</v>
+        <v>0.12116027981682009</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.015898149561245134</v>
+        <v>-0.061680537591985996</v>
       </c>
       <c r="B26" s="0">
-        <v>0.015893969100979177</v>
+        <v>0.061549134046693155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0098939695798092586</v>
+        <v>-0.05554913486858748</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0098830752163152624</v>
+        <v>0.055111678623161797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0038830756961898416</v>
+        <v>-0.049111679455989155</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0038807965806828548</v>
+        <v>0.048825670566943202</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0081192029052292725</v>
+        <v>-0.036825671465955168</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0081202807392699583</v>
+        <v>0.036706859731472363</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.028120280180263357</v>
+        <v>-0.016706860713123106</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.028408035302541546</v>
+        <v>0.016676067189795862</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.033574164455144384</v>
+        <v>-0.0016760681245298059</v>
       </c>
       <c r="B31" s="0">
-        <v>0.033509302521053996</v>
+        <v>0.0016687376927162489</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007598309219645</v>
+        <v>-0.0060005325676621979</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995220456626</v>
+        <v>0.0059999991544712472</v>
       </c>
     </row>
   </sheetData>
